--- a/uipath/bid to bid/global_bidtobid/global.xlsx
+++ b/uipath/bid to bid/global_bidtobid/global.xlsx
@@ -386,7 +386,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>0.000366987</x:v>
+        <x:v>-0.0081911902</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -411,7 +411,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>116.3394843155</x:v>
+        <x:v>122.0281609</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -436,7 +436,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>401</x:v>
+        <x:v>407</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -461,7 +461,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>120.2193791</x:v>
+        <x:v>119.9893504</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -486,7 +486,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>105.972002</x:v>
+        <x:v>102.4787889</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -511,7 +511,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>143.8925352</x:v>
+        <x:v>142.455071</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -536,7 +536,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>121.1000886</x:v>
+        <x:v>121.1677575</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -561,7 +561,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44047</x:v>
+        <x:v>44056</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -586,7 +586,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44047</x:v>
+        <x:v>44056</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/uipath/bid to bid/global_bidtobid/global.xlsx
+++ b/uipath/bid to bid/global_bidtobid/global.xlsx
@@ -386,7 +386,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>-0.0081911902</x:v>
+        <x:v>0.0010491684</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -411,7 +411,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>122.0281609</x:v>
+        <x:v>121.0286050243</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -436,7 +436,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -461,7 +461,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>119.9893504</x:v>
+        <x:v>122.910715</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -486,7 +486,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>102.4787889</x:v>
+        <x:v>108.25992</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -511,7 +511,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>142.455071</x:v>
+        <x:v>142.451789</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -536,7 +536,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>121.1677575</x:v>
+        <x:v>115.7907871</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -561,7 +561,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44056</x:v>
+        <x:v>44057</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -586,7 +586,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44056</x:v>
+        <x:v>44057</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/uipath/bid to bid/global_bidtobid/global.xlsx
+++ b/uipath/bid to bid/global_bidtobid/global.xlsx
@@ -386,7 +386,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>0.0010491684</x:v>
+        <x:v>-0.0063815383</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -411,7 +411,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>121.0286050243</x:v>
+        <x:v>121.1555844122</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -436,7 +436,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -461,7 +461,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>122.910715</x:v>
+        <x:v>122.5510298</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -486,7 +486,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>108.25992</x:v>
+        <x:v>107.0967484</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -511,7 +511,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>142.451789</x:v>
+        <x:v>139.70485</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -536,7 +536,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>115.7907871</x:v>
+        <x:v>113.8862202</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -561,7 +561,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44057</x:v>
+        <x:v>44060</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -586,7 +586,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44057</x:v>
+        <x:v>44060</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
